--- a/pred_ohlcv/54_21/2019-10-30 ETC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 ETC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>18175.57398437573</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -496,7 +496,7 @@
         <v>16580.03208437573</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>16462.96948437572</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>15660.62438437572</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>15742.30048437572</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>15742.30048437572</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-467.8179627087428</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-262.0024627087428</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-727.9431347362358</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-729.4340347362358</v>
       </c>
       <c r="H388">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-681.4379347362359</v>
       </c>
       <c r="H389">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-681.4379347362359</v>
       </c>
       <c r="H390">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-687.7461347362359</v>
       </c>
       <c r="H392">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-686.7461347362359</v>
       </c>
       <c r="H393">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-1403.248234736236</v>
       </c>
       <c r="H394">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-2214.572357431272</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-2641.706157431272</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-2641.506157431272</v>
       </c>
       <c r="H419">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-2631.146157431272</v>
       </c>
       <c r="H420">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-2631.146157431272</v>
       </c>
       <c r="H421">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-2622.836157431272</v>
       </c>
       <c r="H422">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-2622.836157431272</v>
       </c>
       <c r="H423">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-2622.836157431272</v>
       </c>
       <c r="H425">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-4515.205157431272</v>
       </c>
       <c r="H427">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-3220.694357431272</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-2887.143157431272</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-30 ETC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 ETC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>18175.57398437573</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>18175.57398437573</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -548,7 +548,7 @@
         <v>15660.62438437572</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>15742.30048437572</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>15742.30048437572</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>14738.17500306053</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>14710.22780306053</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>14819.03550306053</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>14811.56000306053</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>14425.97000306053</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>14835.42130306053</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>14835.42130306053</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>14104.00710306053</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-467.8179627087428</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-262.0024627087428</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-727.9431347362358</v>
       </c>
       <c r="H385">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-730.4340347362358</v>
       </c>
       <c r="H387">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-687.7461347362359</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-686.7461347362359</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-2123.754834736236</v>
       </c>
       <c r="H398">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-2164.554834736236</v>
       </c>
       <c r="H399">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-2739.876157431272</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-2636.276157431272</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-2641.706157431272</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-2641.506157431272</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-2631.146157431272</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-2631.146157431272</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-2622.836157431272</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-2622.836157431272</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-2622.836157431272</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-2622.836157431272</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-3669.369657431272</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-4515.205157431272</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-2892.306840749972</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-2890.372940749972</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:8">
